--- a/src/mujoco_sim/src/PA.xlsx
+++ b/src/mujoco_sim/src/PA.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="27810" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,102 +28,14 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
-  <si>
-    <t>1.73473726665859</t>
-  </si>
-  <si>
-    <t>1.66533453693773e-15</t>
-  </si>
-  <si>
-    <t>1.10467190950203e-14</t>
-  </si>
-  <si>
-    <t>0.206130275860737</t>
-  </si>
-  <si>
-    <t>7.32747196252603e-15</t>
-  </si>
-  <si>
-    <t>1.23241545000002</t>
-  </si>
-  <si>
-    <t>2.93969525000000</t>
-  </si>
-  <si>
-    <t>2.40696351738734e-13</t>
-  </si>
-  <si>
-    <t>1.60982338570648e-15</t>
-  </si>
-  <si>
-    <t>0.0910605760716151</t>
-  </si>
-  <si>
-    <t>0.407199080270186</t>
-  </si>
-  <si>
-    <t>1.23125206350000</t>
-  </si>
-  <si>
-    <t>3.10862446895044e-15</t>
-  </si>
-  <si>
-    <t>6.45039577307216e-14</t>
-  </si>
-  <si>
-    <t>0.00745308542398027</t>
-  </si>
-  <si>
-    <t>6.96664947952286e-15</t>
-  </si>
-  <si>
-    <t>0.00793188542398685</t>
-  </si>
-  <si>
-    <t>0.0698276117749991</t>
-  </si>
-  <si>
-    <t>4.35207425653061e-14</t>
-  </si>
-  <si>
-    <t>0.00144698615344940</t>
-  </si>
-  <si>
-    <t>2.19269047363468e-15</t>
-  </si>
-  <si>
-    <t>1.31192292549404e-05</t>
-  </si>
-  <si>
-    <t>0.00184399615344411</t>
-  </si>
-  <si>
-    <t>2.48204234942762e-14</t>
-  </si>
-  <si>
-    <t>5.50948175970234e-15</t>
-  </si>
-  <si>
-    <t>2.97947064838849e-06</t>
-  </si>
-  <si>
-    <t>0.000150910715067384</t>
-  </si>
-  <si>
-    <t>0.000105371008998933</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.000000_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -734,17 +646,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1058,256 +964,295 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A48"/>
+  <dimension ref="A1:A61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:1">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" ht="15" spans="1:1">
-      <c r="A2" s="2">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1">
+        <v>1.73473726665859</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1">
         <v>-3.60822483003176e-15</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" ht="15" spans="1:1">
+    <row r="3" spans="1:1">
+      <c r="A3" s="1">
+        <v>1.66533453693773e-15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" s="1">
         <v>-1.22615685000005</v>
       </c>
     </row>
-    <row r="5" ht="15" spans="1:1">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" ht="15" spans="1:1">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" ht="15" spans="1:1">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" ht="15" spans="1:1">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" ht="15" spans="1:1">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" ht="15" spans="1:1">
-      <c r="A10" s="2">
+    <row r="5" spans="1:1">
+      <c r="A5" s="1">
+        <v>1.10467190950203e-14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1">
+        <v>0.206130275860737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1">
+        <v>7.32747196252603e-15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1">
+        <v>1.23241545000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1">
+        <v>2.93969525</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1">
         <v>-2.22044604925031e-15</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="1:1">
-      <c r="A11" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" ht="15" spans="1:1">
-      <c r="A12" s="2">
+    <row r="11" spans="1:1">
+      <c r="A11" s="1">
+        <v>2.40696351738734e-13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1">
         <v>-2.46913600676635e-13</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="1:1">
+    <row r="13" spans="1:1">
       <c r="A13" s="1">
         <v>-0.403820480270183</v>
       </c>
     </row>
-    <row r="14" ht="15" spans="1:1">
-      <c r="A14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" ht="15" spans="1:1">
-      <c r="A15" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" ht="15" spans="1:1">
-      <c r="A16" s="2">
+    <row r="14" spans="1:1">
+      <c r="A14" s="1">
+        <v>1.60982338570648e-15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1">
+        <v>0.0910605760716151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1">
         <v>-7.66053886991358e-15</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="1:1">
-      <c r="A17" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" ht="15" spans="1:1">
-      <c r="A18" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" ht="15" spans="1:1">
-      <c r="A19" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" ht="15" spans="1:1">
-      <c r="A20" s="2">
+    <row r="17" spans="1:1">
+      <c r="A17" s="1">
+        <v>0.407199080270186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1">
+        <v>1.2312520635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1">
+        <v>3.10862446895044e-15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1">
         <v>-3.93574062229618e-14</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="1:1">
-      <c r="A21" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" ht="15" spans="1:1">
-      <c r="A22" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" ht="15" spans="1:1">
-      <c r="A23" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" ht="15" spans="1:1">
-      <c r="A24" s="2">
+    <row r="21" spans="1:1">
+      <c r="A21" s="1">
+        <v>6.45039577307216e-14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1">
+        <v>0.00745308542398027</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1">
+        <v>6.96664947952286e-15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1">
         <v>-1.01307850997046e-14</v>
       </c>
     </row>
-    <row r="25" ht="15" spans="1:1">
-      <c r="A25" s="2">
+    <row r="25" spans="1:1">
+      <c r="A25" s="1">
         <v>-3.13093363496497e-5</v>
       </c>
     </row>
-    <row r="26" ht="15" spans="1:1">
-      <c r="A26" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" ht="15" spans="1:1">
-      <c r="A27" s="2">
+    <row r="26" spans="1:1">
+      <c r="A26" s="1">
+        <v>0.00793188542398685</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1">
         <v>-5.27355936696949e-16</v>
       </c>
     </row>
-    <row r="28" ht="15" spans="1:1">
-      <c r="A28" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" ht="15" spans="1:1">
-      <c r="A29" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" ht="15" spans="1:1">
-      <c r="A30" s="2">
+    <row r="28" spans="1:1">
+      <c r="A28" s="1">
+        <v>0.0698276117749991</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1">
+        <v>4.35207425653061e-14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1">
         <v>-2.99760216648792e-14</v>
       </c>
     </row>
-    <row r="31" ht="15" spans="1:1">
-      <c r="A31" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" ht="15" spans="1:1">
-      <c r="A32" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" ht="15" spans="1:1">
-      <c r="A33" s="2">
+    <row r="31" spans="1:1">
+      <c r="A31" s="1">
+        <v>0.0014469861534494</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1">
+        <v>2.19269047363468e-15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1">
         <v>-1.49880108324396e-15</v>
       </c>
     </row>
-    <row r="34" ht="15" spans="1:1">
-      <c r="A34" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" ht="15" spans="1:1">
-      <c r="A35" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" ht="15" spans="1:1">
-      <c r="A36" s="2">
+    <row r="34" spans="1:1">
+      <c r="A34" s="1">
+        <v>1.31192292549404e-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1">
+        <v>0.00184399615344411</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1">
         <v>-6.66133814775094e-16</v>
       </c>
     </row>
-    <row r="37" ht="15" spans="1:1">
+    <row r="37" spans="1:1">
       <c r="A37" s="1">
         <v>-0.0139108796109961</v>
       </c>
     </row>
-    <row r="38" ht="15" spans="1:1">
-      <c r="A38" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" ht="15" spans="1:1">
-      <c r="A39" s="2">
+    <row r="38" spans="1:1">
+      <c r="A38" s="1">
+        <v>2.48204234942762e-14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1">
         <v>-3.85247389544929e-14</v>
       </c>
     </row>
-    <row r="40" ht="15" spans="1:1">
-      <c r="A40" s="2">
+    <row r="40" spans="1:1">
+      <c r="A40" s="1">
         <v>-6.59284932147397e-7</v>
       </c>
     </row>
-    <row r="41" ht="15" spans="1:1">
-      <c r="A41" s="2">
+    <row r="41" spans="1:1">
+      <c r="A41" s="1">
         <v>-1.06165076729781e-15</v>
       </c>
     </row>
-    <row r="42" ht="15" spans="1:1">
-      <c r="A42" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" ht="15" spans="1:1">
-      <c r="A43" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" ht="15" spans="1:1">
-      <c r="A44" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" ht="15" spans="1:1">
-      <c r="A45" s="2">
+    <row r="42" spans="1:1">
+      <c r="A42" s="1">
+        <v>5.50948175970234e-15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1">
+        <v>2.97947064838849e-6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1">
+        <v>0.000150910715067384</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1">
         <v>-1.83186799063151e-15</v>
       </c>
     </row>
-    <row r="46" ht="15" spans="1:1">
-      <c r="A46" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" ht="15" spans="1:1">
-      <c r="A47" s="2">
+    <row r="46" spans="1:1">
+      <c r="A46" s="1">
+        <v>0.000105371008998933</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1">
         <v>-7.7715611723761e-16</v>
       </c>
     </row>
-    <row r="48" ht="15" spans="1:1">
-      <c r="A48" s="3" t="s">
-        <v>20</v>
-      </c>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1">
+        <v>2.19269047363468e-15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1325,7 +1270,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1342,7 +1287,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/mujoco_sim/src/PA.xlsx
+++ b/src/mujoco_sim/src/PA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27810" windowHeight="12495"/>
+    <workbookView windowHeight="20775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -967,7 +967,7 @@
   <dimension ref="A1:A61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
